--- a/raw_data/20200818_saline/20200818_Sensor3_Test_44.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_44.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4B27C-A925-4725-9A4E-FA031EEFB1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>39258.789461</v>
       </c>
       <c r="B2" s="1">
-        <v>10.905219</v>
+        <v>10.905219000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1155.710000</v>
+        <v>1155.71</v>
       </c>
       <c r="D2" s="1">
-        <v>-234.111000</v>
+        <v>-234.11099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>39269.195068</v>
+        <v>39269.195068000001</v>
       </c>
       <c r="G2" s="1">
-        <v>10.908110</v>
+        <v>10.908110000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.410000</v>
+        <v>1173.4100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-198.193000</v>
+        <v>-198.19300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>39279.935433</v>
+        <v>39279.935432999999</v>
       </c>
       <c r="L2" s="1">
-        <v>10.911093</v>
+        <v>10.911092999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.020000</v>
+        <v>1199.02</v>
       </c>
       <c r="N2" s="1">
-        <v>-141.956000</v>
+        <v>-141.95599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>39290.439212</v>
+        <v>39290.439211999997</v>
       </c>
       <c r="Q2" s="1">
         <v>10.914011</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.940000</v>
+        <v>1206.94</v>
       </c>
       <c r="S2" s="1">
-        <v>-123.086000</v>
+        <v>-123.086</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>39300.767374</v>
+        <v>39300.767374000003</v>
       </c>
       <c r="V2" s="1">
-        <v>10.916880</v>
+        <v>10.916880000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.021000</v>
+        <v>-105.021</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>39310.996122</v>
+        <v>39310.996121999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.919721</v>
+        <v>10.919720999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.966600</v>
+        <v>-89.9666</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>39321.193652</v>
+        <v>39321.193652000002</v>
       </c>
       <c r="AF2" s="1">
         <v>10.922554</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.850000</v>
+        <v>1229.8499999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.056400</v>
+        <v>-86.056399999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>39331.300598</v>
+        <v>39331.300598000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.925361</v>
+        <v>10.925361000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.798700</v>
+        <v>-89.798699999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>39341.568281</v>
@@ -601,136 +1017,136 @@
         <v>10.928213</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.780000</v>
+        <v>1245.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.893000</v>
+        <v>-101.893</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>39352.878093</v>
+        <v>39352.878092999999</v>
       </c>
       <c r="AU2" s="1">
         <v>10.931355</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.860000</v>
+        <v>1255.8599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>39364.112980</v>
+        <v>39364.112979999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.934476</v>
       </c>
       <c r="BA2" s="1">
-        <v>1264.330000</v>
+        <v>1264.33</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.013000</v>
+        <v>-139.01300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>39374.992188</v>
+        <v>39374.992187999997</v>
       </c>
       <c r="BE2" s="1">
         <v>10.937498</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.007000</v>
+        <v>-222.00700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>39385.972126</v>
+        <v>39385.972126000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>10.940548</v>
       </c>
       <c r="BK2" s="1">
-        <v>1373.800000</v>
+        <v>1373.8</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.798000</v>
+        <v>-360.798</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>39396.693679</v>
+        <v>39396.693679000004</v>
       </c>
       <c r="BO2" s="1">
         <v>10.943526</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-587.356000</v>
+        <v>-587.35599999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>39407.074945</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.946410</v>
+        <v>10.94641</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.890000</v>
+        <v>1620.89</v>
       </c>
       <c r="BV2" s="1">
-        <v>-843.789000</v>
+        <v>-843.78899999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>39417.809331</v>
+        <v>39417.809330999997</v>
       </c>
       <c r="BY2" s="1">
         <v>10.949391</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.940000</v>
+        <v>1774.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1123.160000</v>
+        <v>-1123.1600000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>39429.052295</v>
+        <v>39429.052295000001</v>
       </c>
       <c r="CD2" s="1">
         <v>10.952515</v>
       </c>
       <c r="CE2" s="1">
-        <v>2199.710000</v>
+        <v>2199.71</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1801.730000</v>
+        <v>-1801.73</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>39259.489814</v>
       </c>
@@ -738,73 +1154,73 @@
         <v>10.905414</v>
       </c>
       <c r="C3" s="1">
-        <v>1155.950000</v>
+        <v>1155.95</v>
       </c>
       <c r="D3" s="1">
-        <v>-234.252000</v>
+        <v>-234.25200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>39269.851736</v>
+        <v>39269.851735999997</v>
       </c>
       <c r="G3" s="1">
-        <v>10.908292</v>
+        <v>10.908291999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.640000</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-197.940000</v>
+        <v>-197.94</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>39280.337162</v>
+        <v>39280.337162000003</v>
       </c>
       <c r="L3" s="1">
-        <v>10.911205</v>
+        <v>10.911205000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.810000</v>
+        <v>1198.81</v>
       </c>
       <c r="N3" s="1">
-        <v>-141.971000</v>
+        <v>-141.971</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>39290.856316</v>
+        <v>39290.856315999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.914127</v>
+        <v>10.914127000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="S3" s="1">
-        <v>-123.096000</v>
+        <v>-123.096</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>39301.113856</v>
+        <v>39301.113856000004</v>
       </c>
       <c r="V3" s="1">
         <v>10.916976</v>
       </c>
       <c r="W3" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.990000</v>
+        <v>-104.99</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>39311.334144</v>
@@ -813,647 +1229,647 @@
         <v>10.919815</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.490000</v>
+        <v>1224.49</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.888200</v>
+        <v>-89.888199999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>39321.570121</v>
+        <v>39321.570120999997</v>
       </c>
       <c r="AF3" s="1">
         <v>10.922658</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.770000</v>
+        <v>1229.77</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.035700</v>
+        <v>-86.035700000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>39331.719756</v>
+        <v>39331.719755999999</v>
       </c>
       <c r="AK3" s="1">
         <v>10.925478</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.774500</v>
+        <v>-89.774500000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>39341.984423</v>
+        <v>39341.984423000002</v>
       </c>
       <c r="AP3" s="1">
         <v>10.928329</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.877000</v>
+        <v>-101.877</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>39353.308585</v>
+        <v>39353.308584999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.931475</v>
+        <v>10.931475000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.880000</v>
+        <v>1255.8800000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.375000</v>
+        <v>-121.375</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>39364.458155</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.934572</v>
+        <v>10.934571999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1264.380000</v>
+        <v>1264.3800000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.018000</v>
+        <v>-139.018</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>39375.356271</v>
+        <v>39375.356270999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.937599</v>
+        <v>10.937599000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.038000</v>
+        <v>-222.03800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>39386.360525</v>
+        <v>39386.360524999996</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.940656</v>
+        <v>10.940656000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1373.850000</v>
+        <v>1373.85</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.739000</v>
+        <v>-360.73899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>39397.131616</v>
+        <v>39397.131615999999</v>
       </c>
       <c r="BO3" s="1">
         <v>10.943648</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.480000</v>
+        <v>1488.48</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-587.382000</v>
+        <v>-587.38199999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>39407.520340</v>
+        <v>39407.520340000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.946533</v>
+        <v>10.946533000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-843.603000</v>
+        <v>-843.60299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>39418.273588</v>
+        <v>39418.273587999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.949520</v>
+        <v>10.94952</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.780000</v>
+        <v>1774.78</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1123.310000</v>
+        <v>-1123.31</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>39429.614612</v>
+        <v>39429.614611999998</v>
       </c>
       <c r="CD3" s="1">
         <v>10.952671</v>
       </c>
       <c r="CE3" s="1">
-        <v>2197.650000</v>
+        <v>2197.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1801.280000</v>
+        <v>-1801.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>39259.863334</v>
+        <v>39259.863334000001</v>
       </c>
       <c r="B4" s="1">
-        <v>10.905518</v>
+        <v>10.905518000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1155.740000</v>
+        <v>1155.74</v>
       </c>
       <c r="D4" s="1">
-        <v>-233.880000</v>
+        <v>-233.88</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>39270.226710</v>
+        <v>39270.226710000003</v>
       </c>
       <c r="G4" s="1">
         <v>10.908396</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.630000</v>
+        <v>1173.6300000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-197.494000</v>
+        <v>-197.494</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>39280.679400</v>
+        <v>39280.679400000001</v>
       </c>
       <c r="L4" s="1">
-        <v>10.911300</v>
+        <v>10.911300000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.650000</v>
+        <v>1198.6500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-141.904000</v>
+        <v>-141.904</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>39291.205032</v>
+        <v>39291.205031999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.914224</v>
+        <v>10.914224000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1207.000000</v>
+        <v>1207</v>
       </c>
       <c r="S4" s="1">
-        <v>-123.094000</v>
+        <v>-123.09399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>39301.456814</v>
+        <v>39301.456813999997</v>
       </c>
       <c r="V4" s="1">
         <v>10.917071</v>
       </c>
       <c r="W4" s="1">
-        <v>1215.300000</v>
+        <v>1215.3</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.019000</v>
+        <v>-105.01900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>39311.942770</v>
+        <v>39311.942770000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.919984</v>
+        <v>10.919983999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.948100</v>
+        <v>-89.948099999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>39321.984243</v>
+        <v>39321.984242999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.922773</v>
+        <v>10.922772999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.840000</v>
+        <v>1229.8399999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.025000</v>
+        <v>-86.025000000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>39332.063975</v>
+        <v>39332.063974999997</v>
       </c>
       <c r="AK4" s="1">
         <v>10.925573</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.787600</v>
+        <v>-89.787599999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>39342.331128</v>
+        <v>39342.331127999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.928425</v>
+        <v>10.928425000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.780000</v>
+        <v>1245.78</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>39353.674169</v>
+        <v>39353.674168999998</v>
       </c>
       <c r="AU4" s="1">
         <v>10.931576</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.860000</v>
+        <v>1255.8599999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.408000</v>
+        <v>-121.408</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>39364.815306</v>
+        <v>39364.815305999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.934671</v>
       </c>
       <c r="BA4" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.998000</v>
+        <v>-138.99799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>39375.716347</v>
+        <v>39375.716347000001</v>
       </c>
       <c r="BE4" s="1">
         <v>10.937699</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.044000</v>
+        <v>-222.04400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>39387.108990</v>
+        <v>39387.108990000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.940864</v>
+        <v>10.940863999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1373.880000</v>
+        <v>1373.88</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.779000</v>
+        <v>-360.779</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>39397.548753</v>
+        <v>39397.548753000003</v>
       </c>
       <c r="BO4" s="1">
         <v>10.943764</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.540000</v>
+        <v>1488.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-587.373000</v>
+        <v>-587.37300000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>39407.956839</v>
+        <v>39407.956838999999</v>
       </c>
       <c r="BT4" s="1">
         <v>10.946655</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.840000</v>
+        <v>1620.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-843.475000</v>
+        <v>-843.47500000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>39418.721475</v>
+        <v>39418.721474999998</v>
       </c>
       <c r="BY4" s="1">
         <v>10.949645</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.840000</v>
+        <v>1774.84</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1123.090000</v>
+        <v>-1123.0899999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>39430.132931</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.952815</v>
+        <v>10.952814999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2198.500000</v>
+        <v>2198.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1800.550000</v>
+        <v>-1800.55</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>39260.204056</v>
+        <v>39260.204056000002</v>
       </c>
       <c r="B5" s="1">
         <v>10.905612</v>
       </c>
       <c r="C5" s="1">
-        <v>1155.830000</v>
+        <v>1155.83</v>
       </c>
       <c r="D5" s="1">
-        <v>-234.482000</v>
+        <v>-234.482</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>39270.569978</v>
       </c>
       <c r="G5" s="1">
-        <v>10.908492</v>
+        <v>10.908492000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-197.647000</v>
+        <v>-197.64699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>39281.029577</v>
+        <v>39281.029577000001</v>
       </c>
       <c r="L5" s="1">
-        <v>10.911397</v>
+        <v>10.911396999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.630000</v>
+        <v>1198.6300000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-141.791000</v>
+        <v>-141.791</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>39291.553691</v>
+        <v>39291.553691000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.914320</v>
+        <v>10.91432</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="S5" s="1">
-        <v>-123.113000</v>
+        <v>-123.113</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>39301.877927</v>
+        <v>39301.877927000001</v>
       </c>
       <c r="V5" s="1">
-        <v>10.917188</v>
+        <v>10.917187999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1215.380000</v>
+        <v>1215.3800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.945000</v>
+        <v>-104.94499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>39312.054839</v>
+        <v>39312.054838999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.920015</v>
+        <v>10.920014999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.845400</v>
+        <v>-89.845399999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>39322.261506</v>
+        <v>39322.261506000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.922850</v>
+        <v>10.92285</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.840000</v>
+        <v>1229.8399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.055700</v>
+        <v>-86.055700000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>39332.413622</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.925670</v>
+        <v>10.92567</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.770600</v>
+        <v>-89.770600000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>39342.688775</v>
+        <v>39342.688775000002</v>
       </c>
       <c r="AP5" s="1">
         <v>10.928525</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.900000</v>
+        <v>-101.9</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>39354.038199</v>
+        <v>39354.038199000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.931677</v>
+        <v>10.931677000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.850000</v>
+        <v>1255.8499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.435000</v>
+        <v>-121.435</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>39365.535000</v>
+        <v>39365.535000000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.934871</v>
+        <v>10.934870999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1264.330000</v>
+        <v>1264.33</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.993000</v>
+        <v>-138.99299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>39376.439524</v>
+        <v>39376.439524000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.937900</v>
+        <v>10.937900000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.019000</v>
+        <v>-222.01900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>39387.485948</v>
+        <v>39387.485948000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.940968</v>
       </c>
       <c r="BK5" s="1">
-        <v>1373.820000</v>
+        <v>1373.82</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.757000</v>
+        <v>-360.75700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>39397.945549</v>
+        <v>39397.945548999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.943874</v>
+        <v>10.943873999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-587.439000</v>
+        <v>-587.43899999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>39408.383361</v>
@@ -1462,285 +1878,285 @@
         <v>10.946773</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.900000</v>
+        <v>1620.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-843.355000</v>
+        <v>-843.35500000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>39419.170852</v>
+        <v>39419.170852000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.949770</v>
+        <v>10.949769999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.830000</v>
+        <v>1774.83</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1123.200000</v>
+        <v>-1123.2</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>39431.005922</v>
+        <v>39431.005921999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.953057</v>
+        <v>10.953056999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2200.300000</v>
+        <v>2200.3000000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1802.240000</v>
+        <v>-1802.24</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>39260.544805</v>
+        <v>39260.544804999998</v>
       </c>
       <c r="B6" s="1">
         <v>10.905707</v>
       </c>
       <c r="C6" s="1">
-        <v>1155.600000</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-234.047000</v>
+        <v>-234.047</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>39270.915158</v>
+        <v>39270.915158000003</v>
       </c>
       <c r="G6" s="1">
         <v>10.908588</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.690000</v>
+        <v>1173.69</v>
       </c>
       <c r="I6" s="1">
-        <v>-197.252000</v>
+        <v>-197.25200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>39281.442247</v>
+        <v>39281.442246999999</v>
       </c>
       <c r="L6" s="1">
         <v>10.911512</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.610000</v>
+        <v>1198.6099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-142.134000</v>
+        <v>-142.13399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>39291.985210</v>
+        <v>39291.985209999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.914440</v>
+        <v>10.914440000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.980000</v>
+        <v>1206.98</v>
       </c>
       <c r="S6" s="1">
-        <v>-123.113000</v>
+        <v>-123.113</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>39302.152237</v>
+        <v>39302.152237000002</v>
       </c>
       <c r="V6" s="1">
         <v>10.917265</v>
       </c>
       <c r="W6" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.038000</v>
+        <v>-105.038</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>39312.382226</v>
+        <v>39312.382226000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.920106</v>
+        <v>10.920106000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.984700</v>
+        <v>-89.984700000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>39322.602258</v>
+        <v>39322.602257999999</v>
       </c>
       <c r="AF6" s="1">
         <v>10.922945</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.840000</v>
+        <v>1229.8399999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.061400</v>
+        <v>-86.061400000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>39332.762804</v>
+        <v>39332.762803999998</v>
       </c>
       <c r="AK6" s="1">
         <v>10.925767</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.777800</v>
+        <v>-89.777799999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>39343.049335</v>
+        <v>39343.049335000003</v>
       </c>
       <c r="AP6" s="1">
         <v>10.928625</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>39354.766358</v>
+        <v>39354.766358000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.931880</v>
+        <v>10.93188</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.840000</v>
+        <v>1255.8399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.418000</v>
+        <v>-121.41800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>39365.894104</v>
+        <v>39365.894103999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.934971</v>
+        <v>10.934971000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.043000</v>
+        <v>-139.04300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>39376.800603</v>
+        <v>39376.800603000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>10.938000</v>
+        <v>10.938000000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.035000</v>
+        <v>-222.035</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>39387.860891</v>
+        <v>39387.860890999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>10.941072</v>
       </c>
       <c r="BK6" s="1">
-        <v>1373.840000</v>
+        <v>1373.84</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.768000</v>
+        <v>-360.76799999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>39398.371124</v>
+        <v>39398.371123999998</v>
       </c>
       <c r="BO6" s="1">
         <v>10.943992</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.460000</v>
+        <v>1488.46</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-587.362000</v>
+        <v>-587.36199999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>39409.102596</v>
+        <v>39409.102595999997</v>
       </c>
       <c r="BT6" s="1">
         <v>10.946973</v>
       </c>
       <c r="BU6" s="1">
-        <v>1621.150000</v>
+        <v>1621.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-843.275000</v>
+        <v>-843.27499999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>39419.644530</v>
+        <v>39419.644529999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.949901</v>
+        <v>10.949901000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.880000</v>
+        <v>1774.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1123.110000</v>
+        <v>-1123.1099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>39431.214709</v>
@@ -1749,180 +2165,180 @@
         <v>10.953115</v>
       </c>
       <c r="CE6" s="1">
-        <v>2198.340000</v>
+        <v>2198.34</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1801.110000</v>
+        <v>-1801.11</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>39260.976819</v>
+        <v>39260.976819000003</v>
       </c>
       <c r="B7" s="1">
         <v>10.905827</v>
       </c>
       <c r="C7" s="1">
-        <v>1156.020000</v>
+        <v>1156.02</v>
       </c>
       <c r="D7" s="1">
-        <v>-234.045000</v>
+        <v>-234.04499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>39271.345221</v>
+        <v>39271.345221000003</v>
       </c>
       <c r="G7" s="1">
         <v>10.908707</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.350000</v>
+        <v>1173.3499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-198.125000</v>
+        <v>-198.125</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>39281.739855</v>
       </c>
       <c r="L7" s="1">
-        <v>10.911594</v>
+        <v>10.911593999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.850000</v>
+        <v>1198.8499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-141.965000</v>
+        <v>-141.965</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>39292.253583</v>
+        <v>39292.253582999998</v>
       </c>
       <c r="Q7" s="1">
         <v>10.914515</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.930000</v>
+        <v>1206.93</v>
       </c>
       <c r="S7" s="1">
-        <v>-123.097000</v>
+        <v>-123.09699999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>39302.498908</v>
+        <v>39302.498908000001</v>
       </c>
       <c r="V7" s="1">
         <v>10.917361</v>
       </c>
       <c r="W7" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="X7" s="1">
-        <v>-105.030000</v>
+        <v>-105.03</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>39312.730878</v>
+        <v>39312.730878000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.920203</v>
+        <v>10.920203000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.894300</v>
+        <v>-89.894300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>39322.946017</v>
+        <v>39322.946017000002</v>
       </c>
       <c r="AF7" s="1">
         <v>10.923041</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.810000</v>
+        <v>1229.81</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.041500</v>
+        <v>-86.041499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>39333.458227</v>
+        <v>39333.458227000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.925961</v>
+        <v>10.925960999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.782200</v>
+        <v>-89.782200000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>39343.772005</v>
+        <v>39343.772004999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.928826</v>
+        <v>10.928826000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.897000</v>
+        <v>-101.89700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>39355.158860</v>
+        <v>39355.158860000003</v>
       </c>
       <c r="AU7" s="1">
         <v>10.931989</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.870000</v>
+        <v>1255.8699999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.431000</v>
+        <v>-121.431</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>39366.251193</v>
+        <v>39366.251192999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.935070</v>
+        <v>10.93507</v>
       </c>
       <c r="BA7" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.044000</v>
+        <v>-139.04400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>39377.164697</v>
@@ -1931,58 +2347,58 @@
         <v>10.938101</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.041000</v>
+        <v>-222.041</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>39388.540906</v>
+        <v>39388.540906000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.941261</v>
+        <v>10.941261000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1373.880000</v>
+        <v>1373.88</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.791000</v>
+        <v>-360.791</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>39399.072956</v>
+        <v>39399.072956000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.944187</v>
+        <v>10.944186999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.490000</v>
+        <v>1488.49</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-587.417000</v>
+        <v>-587.41700000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>39409.227551</v>
+        <v>39409.227551000004</v>
       </c>
       <c r="BT7" s="1">
         <v>10.947008</v>
       </c>
       <c r="BU7" s="1">
-        <v>1621.300000</v>
+        <v>1621.3</v>
       </c>
       <c r="BV7" s="1">
-        <v>-843.298000</v>
+        <v>-843.298</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>39420.016034</v>
@@ -1991,90 +2407,90 @@
         <v>10.950004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.680000</v>
+        <v>1774.68</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1123.320000</v>
+        <v>-1123.32</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>39431.733521</v>
+        <v>39431.733521000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.953259</v>
+        <v>10.953258999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2197.570000</v>
+        <v>2197.5700000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1802.880000</v>
+        <v>-1802.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>39261.241683</v>
       </c>
       <c r="B8" s="1">
-        <v>10.905900</v>
+        <v>10.905900000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1156.040000</v>
+        <v>1156.04</v>
       </c>
       <c r="D8" s="1">
-        <v>-234.319000</v>
+        <v>-234.31899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>39271.624969</v>
+        <v>39271.624968999997</v>
       </c>
       <c r="G8" s="1">
         <v>10.908785</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.610000</v>
+        <v>1173.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-198.915000</v>
+        <v>-198.91499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>39282.086552</v>
+        <v>39282.086552000001</v>
       </c>
       <c r="L8" s="1">
-        <v>10.911691</v>
+        <v>10.911690999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-141.944000</v>
+        <v>-141.94399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>39292.602766</v>
+        <v>39292.602766000004</v>
       </c>
       <c r="Q8" s="1">
         <v>10.914612</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S8" s="1">
-        <v>-123.010000</v>
+        <v>-123.01</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>39302.842139</v>
@@ -2083,148 +2499,148 @@
         <v>10.917456</v>
       </c>
       <c r="W8" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="X8" s="1">
-        <v>-104.993000</v>
+        <v>-104.99299999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>39313.427298</v>
+        <v>39313.427298000002</v>
       </c>
       <c r="AA8" s="1">
         <v>10.920396</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.925900</v>
+        <v>-89.925899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>39323.631953</v>
+        <v>39323.631952999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.923231</v>
+        <v>10.923230999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.810000</v>
+        <v>1229.81</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.083100</v>
+        <v>-86.083100000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>39333.808372</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.926058</v>
+        <v>10.926057999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.764500</v>
+        <v>-89.764499999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>39344.131605</v>
+        <v>39344.131605000002</v>
       </c>
       <c r="AP8" s="1">
         <v>10.928925</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>39355.522230</v>
+        <v>39355.522230000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.932090</v>
+        <v>10.932090000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.870000</v>
+        <v>1255.8699999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.421000</v>
+        <v>-121.42100000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>39366.921287</v>
+        <v>39366.921286999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.935256</v>
+        <v>10.935256000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.991000</v>
+        <v>-138.99100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>39377.825832</v>
+        <v>39377.825832000002</v>
       </c>
       <c r="BE8" s="1">
         <v>10.938285</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.027000</v>
+        <v>-222.02699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>39388.646093</v>
+        <v>39388.646093000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.941291</v>
       </c>
       <c r="BK8" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.821000</v>
+        <v>-360.82100000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>39399.191500</v>
+        <v>39399.191500000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.944220</v>
+        <v>10.94422</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.480000</v>
+        <v>1488.48</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-587.429000</v>
+        <v>-587.42899999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>39409.663535</v>
@@ -2233,13 +2649,13 @@
         <v>10.947129</v>
       </c>
       <c r="BU8" s="1">
-        <v>1621.390000</v>
+        <v>1621.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-843.327000</v>
+        <v>-843.327</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>39420.449536</v>
@@ -2248,270 +2664,270 @@
         <v>10.950125</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.800000</v>
+        <v>1774.8</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1123.150000</v>
+        <v>-1123.1500000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>39432.253865</v>
+        <v>39432.253864999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.953404</v>
+        <v>10.953404000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2199.770000</v>
+        <v>2199.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1803.230000</v>
+        <v>-1803.23</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>39261.582932</v>
+        <v>39261.582931999998</v>
       </c>
       <c r="B9" s="1">
-        <v>10.905995</v>
+        <v>10.905995000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1155.670000</v>
+        <v>1155.67</v>
       </c>
       <c r="D9" s="1">
-        <v>-234.095000</v>
+        <v>-234.095</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>39271.971140</v>
+        <v>39271.971140000001</v>
       </c>
       <c r="G9" s="1">
-        <v>10.908881</v>
+        <v>10.908880999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.570000</v>
+        <v>1173.57</v>
       </c>
       <c r="I9" s="1">
-        <v>-198.196000</v>
+        <v>-198.196</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>39282.434247</v>
+        <v>39282.434246999997</v>
       </c>
       <c r="L9" s="1">
         <v>10.911787</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.630000</v>
+        <v>1198.6300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-141.712000</v>
+        <v>-141.71199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>39292.952440</v>
+        <v>39292.952440000001</v>
       </c>
       <c r="Q9" s="1">
         <v>10.914709</v>
       </c>
       <c r="R9" s="1">
-        <v>1207.040000</v>
+        <v>1207.04</v>
       </c>
       <c r="S9" s="1">
-        <v>-123.064000</v>
+        <v>-123.06399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>39303.528106</v>
+        <v>39303.528105999998</v>
       </c>
       <c r="V9" s="1">
-        <v>10.917647</v>
+        <v>10.917647000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="X9" s="1">
-        <v>-104.920000</v>
+        <v>-104.92</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>39313.774497</v>
+        <v>39313.774496999999</v>
       </c>
       <c r="AA9" s="1">
         <v>10.920493</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.910900</v>
+        <v>-89.910899999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>39323.975220</v>
+        <v>39323.97522</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.923326</v>
+        <v>10.923325999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.870000</v>
+        <v>1229.8699999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.088200</v>
+        <v>-86.088200000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>39334.156067</v>
+        <v>39334.156067000004</v>
       </c>
       <c r="AK9" s="1">
         <v>10.926154</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.769500</v>
+        <v>-89.769499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>39344.497156</v>
+        <v>39344.497155999998</v>
       </c>
       <c r="AP9" s="1">
         <v>10.929027</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.780000</v>
+        <v>1245.78</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.893000</v>
+        <v>-101.893</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>39356.192821</v>
+        <v>39356.192820999997</v>
       </c>
       <c r="AU9" s="1">
         <v>10.932276</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.860000</v>
+        <v>1255.8599999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>39367.364248</v>
+        <v>39367.364247999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.935379</v>
+        <v>10.935378999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1264.330000</v>
+        <v>1264.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.014000</v>
+        <v>-139.01400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>39378.280168</v>
+        <v>39378.280167999998</v>
       </c>
       <c r="BE9" s="1">
         <v>10.938411</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.030000</v>
+        <v>-222.03</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>39389.021531</v>
+        <v>39389.021530999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.941395</v>
       </c>
       <c r="BK9" s="1">
-        <v>1373.810000</v>
+        <v>1373.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.749000</v>
+        <v>-360.74900000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>39399.611611</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.944337</v>
+        <v>10.944337000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.460000</v>
+        <v>1488.46</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-587.385000</v>
+        <v>-587.38499999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>39410.092606</v>
+        <v>39410.092605999998</v>
       </c>
       <c r="BT9" s="1">
         <v>10.947248</v>
       </c>
       <c r="BU9" s="1">
-        <v>1621.610000</v>
+        <v>1621.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-843.392000</v>
+        <v>-843.39200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>39420.871658</v>
+        <v>39420.871657999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.950242</v>
+        <v>10.950241999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1123.250000</v>
+        <v>-1123.25</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>39432.769665</v>
@@ -2520,150 +2936,150 @@
         <v>10.953547</v>
       </c>
       <c r="CE9" s="1">
-        <v>2198.600000</v>
+        <v>2198.6</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1803.770000</v>
+        <v>-1803.77</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>39261.925169</v>
+        <v>39261.925169000002</v>
       </c>
       <c r="B10" s="1">
-        <v>10.906090</v>
+        <v>10.906090000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1155.740000</v>
+        <v>1155.74</v>
       </c>
       <c r="D10" s="1">
-        <v>-234.395000</v>
+        <v>-234.39500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>39272.314403</v>
+        <v>39272.314402999997</v>
       </c>
       <c r="G10" s="1">
-        <v>10.908976</v>
+        <v>10.908975999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1173.760000</v>
+        <v>1173.76</v>
       </c>
       <c r="I10" s="1">
-        <v>-198.758000</v>
+        <v>-198.75800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>39283.127189</v>
+        <v>39283.127188999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.911980</v>
+        <v>10.91198</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.720000</v>
+        <v>1198.72</v>
       </c>
       <c r="N10" s="1">
-        <v>-142.117000</v>
+        <v>-142.11699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>39293.648307</v>
+        <v>39293.648307000003</v>
       </c>
       <c r="Q10" s="1">
         <v>10.914902</v>
       </c>
       <c r="R10" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-123.077000</v>
+        <v>-123.077</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>39303.867408</v>
+        <v>39303.867407999998</v>
       </c>
       <c r="V10" s="1">
-        <v>10.917741</v>
+        <v>10.917740999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1215.320000</v>
+        <v>1215.32</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.058000</v>
+        <v>-105.05800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>39314.125134</v>
+        <v>39314.125134000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.920590</v>
+        <v>10.920590000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.834500</v>
+        <v>-89.834500000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>39324.325360</v>
+        <v>39324.325360000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.923424</v>
+        <v>10.923424000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.820000</v>
+        <v>1229.82</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.061300</v>
+        <v>-86.061300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>39334.816737</v>
+        <v>39334.816737000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.926338</v>
+        <v>10.926337999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.797400</v>
+        <v>-89.797399999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>39345.157827</v>
+        <v>39345.157827000003</v>
       </c>
       <c r="AP10" s="1">
         <v>10.929211</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.770000</v>
+        <v>1245.77</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.903000</v>
+        <v>-101.90300000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>39356.647652</v>
@@ -2672,694 +3088,694 @@
         <v>10.932402</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.870000</v>
+        <v>1255.8699999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.419000</v>
+        <v>-121.419</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>39367.722325</v>
+        <v>39367.722325000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>10.935478</v>
       </c>
       <c r="BA10" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>39378.640079</v>
+        <v>39378.640078999997</v>
       </c>
       <c r="BE10" s="1">
         <v>10.938511</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.007000</v>
+        <v>-222.00700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>39389.397992</v>
+        <v>39389.397991999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.941499</v>
       </c>
       <c r="BK10" s="1">
-        <v>1373.840000</v>
+        <v>1373.84</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.776000</v>
+        <v>-360.77600000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>39400.006924</v>
+        <v>39400.006924000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.944446</v>
+        <v>10.944445999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.560000</v>
+        <v>1488.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-587.375000</v>
+        <v>-587.375</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>39410.508717</v>
+        <v>39410.508716999997</v>
       </c>
       <c r="BT10" s="1">
         <v>10.947364</v>
       </c>
       <c r="BU10" s="1">
-        <v>1621.730000</v>
+        <v>1621.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-843.547000</v>
+        <v>-843.54700000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>39421.290291</v>
+        <v>39421.290290999998</v>
       </c>
       <c r="BY10" s="1">
         <v>10.950358</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.910000</v>
+        <v>1774.91</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1122.910000</v>
+        <v>-1122.9100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>39433.322206</v>
+        <v>39433.322205999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.953701</v>
+        <v>10.953701000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2197.070000</v>
+        <v>2197.0700000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1803.210000</v>
+        <v>-1803.21</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>39262.607168</v>
+        <v>39262.607168000002</v>
       </c>
       <c r="B11" s="1">
-        <v>10.906280</v>
+        <v>10.906280000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1155.840000</v>
+        <v>1155.8399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-234.255000</v>
+        <v>-234.255</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>39273.002819</v>
+        <v>39273.002819000001</v>
       </c>
       <c r="G11" s="1">
         <v>10.909167</v>
       </c>
       <c r="H11" s="1">
-        <v>1173.340000</v>
+        <v>1173.3399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-198.644000</v>
+        <v>-198.64400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>39283.471878</v>
+        <v>39283.471877999997</v>
       </c>
       <c r="L11" s="1">
-        <v>10.912076</v>
+        <v>10.912076000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-142.042000</v>
+        <v>-142.042</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>39293.996488</v>
+        <v>39293.996487999997</v>
       </c>
       <c r="Q11" s="1">
         <v>10.914999</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S11" s="1">
-        <v>-123.167000</v>
+        <v>-123.167</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>39304.215066</v>
+        <v>39304.215065999997</v>
       </c>
       <c r="V11" s="1">
         <v>10.917838</v>
       </c>
       <c r="W11" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-104.928000</v>
+        <v>-104.928</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>39314.783819</v>
+        <v>39314.783818999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.920773</v>
+        <v>10.920773000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.899600</v>
+        <v>-89.899600000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>39324.975154</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.923604</v>
+        <v>10.923603999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.820000</v>
+        <v>1229.82</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.035000</v>
+        <v>-86.034999999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>39335.202626</v>
+        <v>39335.202625999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.926445</v>
+        <v>10.926444999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.765100</v>
+        <v>-89.765100000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>39345.601747</v>
+        <v>39345.601747000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.929334</v>
+        <v>10.929334000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.899000</v>
+        <v>-101.899</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>39357.012739</v>
+        <v>39357.012738999998</v>
       </c>
       <c r="AU11" s="1">
         <v>10.932504</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.860000</v>
+        <v>1255.8599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.406000</v>
+        <v>-121.40600000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>39368.080438</v>
+        <v>39368.080437999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.935578</v>
       </c>
       <c r="BA11" s="1">
-        <v>1264.320000</v>
+        <v>1264.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.989000</v>
+        <v>-138.989</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>39379.002839</v>
+        <v>39379.002839000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.938612</v>
+        <v>10.938611999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.023000</v>
+        <v>-222.023</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>39389.829512</v>
+        <v>39389.829511999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.941619</v>
+        <v>10.941618999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1373.870000</v>
+        <v>1373.87</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.785000</v>
+        <v>-360.78500000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>39400.429018</v>
+        <v>39400.429018000003</v>
       </c>
       <c r="BO11" s="1">
         <v>10.944564</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-587.406000</v>
+        <v>-587.40599999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>39410.934318</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.947482</v>
+        <v>10.947482000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1621.860000</v>
+        <v>1621.86</v>
       </c>
       <c r="BV11" s="1">
-        <v>-843.596000</v>
+        <v>-843.596</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>39421.718798</v>
+        <v>39421.718798000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.950477</v>
+        <v>10.950476999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.900000</v>
+        <v>1774.9</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1123.060000</v>
+        <v>-1123.06</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>39433.850944</v>
+        <v>39433.850943999998</v>
       </c>
       <c r="CD11" s="1">
         <v>10.953847</v>
       </c>
       <c r="CE11" s="1">
-        <v>2199.070000</v>
+        <v>2199.0700000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1804.120000</v>
+        <v>-1804.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>39262.952384</v>
+        <v>39262.952383999997</v>
       </c>
       <c r="B12" s="1">
         <v>10.906376</v>
       </c>
       <c r="C12" s="1">
-        <v>1155.810000</v>
+        <v>1155.81</v>
       </c>
       <c r="D12" s="1">
-        <v>-233.986000</v>
+        <v>-233.98599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>39273.348034</v>
+        <v>39273.348034000002</v>
       </c>
       <c r="G12" s="1">
-        <v>10.909263</v>
+        <v>10.909262999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1173.200000</v>
+        <v>1173.2</v>
       </c>
       <c r="I12" s="1">
-        <v>-198.413000</v>
+        <v>-198.41300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>39283.818084</v>
+        <v>39283.818083999999</v>
       </c>
       <c r="L12" s="1">
         <v>10.912172</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.910000</v>
+        <v>1198.9100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-142.102000</v>
+        <v>-142.102</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>39294.649750</v>
+        <v>39294.649749999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.915180</v>
+        <v>10.915179999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.168000</v>
+        <v>-123.16800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>39304.863353</v>
+        <v>39304.863353000001</v>
       </c>
       <c r="V12" s="1">
         <v>10.918018</v>
       </c>
       <c r="W12" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.013000</v>
+        <v>-105.01300000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>39315.168751</v>
+        <v>39315.168750999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.920880</v>
+        <v>10.92088</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.977500</v>
+        <v>-89.977500000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>39325.356047</v>
+        <v>39325.356047000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.923710</v>
+        <v>10.92371</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.850000</v>
+        <v>1229.8499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.100000</v>
+        <v>-86.1</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>39335.549361</v>
+        <v>39335.549360999998</v>
       </c>
       <c r="AK12" s="1">
         <v>10.926541</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.764200</v>
+        <v>-89.764200000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>39345.962338</v>
+        <v>39345.962337999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.929434</v>
+        <v>10.929434000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.820000</v>
+        <v>1245.82</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.891000</v>
+        <v>-101.89100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>39357.379779</v>
+        <v>39357.379779000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.932605</v>
+        <v>10.932605000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.860000</v>
+        <v>1255.8599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.427000</v>
+        <v>-121.42700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>39368.490630</v>
+        <v>39368.49063</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.935692</v>
       </c>
       <c r="BA12" s="1">
-        <v>1264.330000</v>
+        <v>1264.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.019000</v>
+        <v>-139.01900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>39379.414518</v>
+        <v>39379.414517999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.938726</v>
+        <v>10.938726000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.033000</v>
+        <v>-222.03299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>39390.137032</v>
+        <v>39390.137031999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.941705</v>
+        <v>10.941705000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1373.850000</v>
+        <v>1373.85</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.797000</v>
+        <v>-360.79700000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>39400.826313</v>
+        <v>39400.826312999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.944674</v>
+        <v>10.944673999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-587.436000</v>
+        <v>-587.43600000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>39411.362828</v>
+        <v>39411.362827999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.947601</v>
+        <v>10.947601000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1621.800000</v>
+        <v>1621.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-843.698000</v>
+        <v>-843.69799999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>39422.133976</v>
+        <v>39422.133975999997</v>
       </c>
       <c r="BY12" s="1">
         <v>10.950593</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.860000</v>
+        <v>1774.86</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1123.210000</v>
+        <v>-1123.21</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>39434.371245</v>
+        <v>39434.371245000002</v>
       </c>
       <c r="CD12" s="1">
         <v>10.953992</v>
       </c>
       <c r="CE12" s="1">
-        <v>2198.780000</v>
+        <v>2198.7800000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1801.190000</v>
+        <v>-1801.19</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>39263.293633</v>
+        <v>39263.293633000001</v>
       </c>
       <c r="B13" s="1">
-        <v>10.906470</v>
+        <v>10.906470000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1155.730000</v>
+        <v>1155.73</v>
       </c>
       <c r="D13" s="1">
-        <v>-234.323000</v>
+        <v>-234.32300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>39273.691761</v>
+        <v>39273.691761000002</v>
       </c>
       <c r="G13" s="1">
         <v>10.909359</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.630000</v>
+        <v>1173.6300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-197.740000</v>
+        <v>-197.74</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>39284.473301</v>
+        <v>39284.473300999998</v>
       </c>
       <c r="L13" s="1">
-        <v>10.912354</v>
+        <v>10.912354000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.810000</v>
+        <v>1198.81</v>
       </c>
       <c r="N13" s="1">
-        <v>-141.785000</v>
+        <v>-141.785</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>39295.039109</v>
+        <v>39295.039108999998</v>
       </c>
       <c r="Q13" s="1">
         <v>10.915289</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.950000</v>
+        <v>1206.95</v>
       </c>
       <c r="S13" s="1">
-        <v>-123.153000</v>
+        <v>-123.15300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>39305.243272</v>
@@ -3368,330 +3784,330 @@
         <v>10.918123</v>
       </c>
       <c r="W13" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-104.987000</v>
+        <v>-104.98699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>39315.520380</v>
+        <v>39315.520380000002</v>
       </c>
       <c r="AA13" s="1">
         <v>10.920978</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.982500</v>
+        <v>-89.982500000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>39325.696339</v>
+        <v>39325.696339000002</v>
       </c>
       <c r="AF13" s="1">
         <v>10.923805</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.810000</v>
+        <v>1229.81</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.022600</v>
+        <v>-86.022599999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>39335.897521</v>
+        <v>39335.897520999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.926638</v>
+        <v>10.926638000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.760900</v>
+        <v>-89.760900000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>39346.321938</v>
+        <v>39346.321938000001</v>
       </c>
       <c r="AP13" s="1">
         <v>10.929534</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.857000</v>
+        <v>-101.857</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>39357.796916</v>
+        <v>39357.796915999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.932721</v>
+        <v>10.932721000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.840000</v>
+        <v>1255.8399999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>39368.798148</v>
+        <v>39368.798148000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>10.935777</v>
       </c>
       <c r="BA13" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.014000</v>
+        <v>-139.01400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>39379.722542</v>
+        <v>39379.722542000003</v>
       </c>
       <c r="BE13" s="1">
         <v>10.938812</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.014000</v>
+        <v>-222.01400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>39390.520974</v>
+        <v>39390.520973999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.941811</v>
       </c>
       <c r="BK13" s="1">
-        <v>1373.830000</v>
+        <v>1373.83</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.813000</v>
+        <v>-360.81299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>39401.245966</v>
+        <v>39401.245966000002</v>
       </c>
       <c r="BO13" s="1">
         <v>10.944791</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-587.430000</v>
+        <v>-587.42999999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>39411.775040</v>
+        <v>39411.77504</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.947715</v>
+        <v>10.947715000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1621.720000</v>
+        <v>1621.72</v>
       </c>
       <c r="BV13" s="1">
-        <v>-843.885000</v>
+        <v>-843.88499999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>39422.587295</v>
+        <v>39422.587294999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.950719</v>
+        <v>10.950718999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.830000</v>
+        <v>1774.83</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1123.140000</v>
+        <v>-1123.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>39434.909901</v>
+        <v>39434.909900999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.954142</v>
+        <v>10.954141999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2197.300000</v>
+        <v>2197.3000000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1802.920000</v>
+        <v>-1802.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>39263.933828</v>
+        <v>39263.933828000001</v>
       </c>
       <c r="B14" s="1">
-        <v>10.906648</v>
+        <v>10.906648000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1155.740000</v>
+        <v>1155.74</v>
       </c>
       <c r="D14" s="1">
-        <v>-234.086000</v>
+        <v>-234.08600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>39274.351441</v>
+        <v>39274.351440999999</v>
       </c>
       <c r="G14" s="1">
         <v>10.909542</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.200000</v>
+        <v>1173.2</v>
       </c>
       <c r="I14" s="1">
-        <v>-198.534000</v>
+        <v>-198.53399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>39284.853236</v>
+        <v>39284.853236000003</v>
       </c>
       <c r="L14" s="1">
         <v>10.912459</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.740000</v>
+        <v>1198.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-141.950000</v>
+        <v>-141.94999999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>39295.390773</v>
+        <v>39295.390772999999</v>
       </c>
       <c r="Q14" s="1">
         <v>10.915386</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.980000</v>
+        <v>1206.98</v>
       </c>
       <c r="S14" s="1">
-        <v>-123.079000</v>
+        <v>-123.07899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>39305.586535</v>
+        <v>39305.586535000002</v>
       </c>
       <c r="V14" s="1">
         <v>10.918218</v>
       </c>
       <c r="W14" s="1">
-        <v>1215.420000</v>
+        <v>1215.42</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.969000</v>
+        <v>-104.96899999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>39315.867612</v>
+        <v>39315.867612000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.921074</v>
+        <v>10.921074000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.911000</v>
+        <v>-89.911000000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>39326.042509</v>
+        <v>39326.042508999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.923901</v>
+        <v>10.923901000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.900000</v>
+        <v>1229.9000000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.998000</v>
+        <v>-85.998000000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>39336.310534</v>
+        <v>39336.310533999997</v>
       </c>
       <c r="AK14" s="1">
         <v>10.926753</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.762100</v>
+        <v>-89.762100000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>39347.044641</v>
       </c>
       <c r="AP14" s="1">
-        <v>10.929735</v>
+        <v>10.929735000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.770000</v>
+        <v>1245.77</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.880000</v>
+        <v>-101.88</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>39358.108881</v>
@@ -3700,315 +4116,315 @@
         <v>10.932808</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.870000</v>
+        <v>1255.8699999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.353000</v>
+        <v>-121.35299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>39369.158776</v>
+        <v>39369.158775999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.935877</v>
       </c>
       <c r="BA14" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.024000</v>
+        <v>-139.024</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>39380.085607</v>
+        <v>39380.085607000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.938913</v>
+        <v>10.938912999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.043000</v>
+        <v>-222.04300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>39390.920216</v>
+        <v>39390.920215999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.941922</v>
       </c>
       <c r="BK14" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.806000</v>
+        <v>-360.80599999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>39401.971579</v>
+        <v>39401.971578999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.944992</v>
+        <v>10.944991999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-587.365000</v>
+        <v>-587.36500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>39412.206058</v>
+        <v>39412.206058000003</v>
       </c>
       <c r="BT14" s="1">
         <v>10.947835</v>
       </c>
       <c r="BU14" s="1">
-        <v>1621.780000</v>
+        <v>1621.78</v>
       </c>
       <c r="BV14" s="1">
-        <v>-844.035000</v>
+        <v>-844.03499999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>39423.036176</v>
+        <v>39423.036176000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.950843</v>
+        <v>10.950843000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.800000</v>
+        <v>1774.8</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1123.230000</v>
+        <v>-1123.23</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>39435.452526</v>
+        <v>39435.452526000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.954292</v>
+        <v>10.954292000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2199.760000</v>
+        <v>2199.7600000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1802.720000</v>
+        <v>-1802.72</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>39264.317870</v>
+        <v>39264.317869999999</v>
       </c>
       <c r="B15" s="1">
         <v>10.906755</v>
       </c>
       <c r="C15" s="1">
-        <v>1155.700000</v>
+        <v>1155.7</v>
       </c>
       <c r="D15" s="1">
-        <v>-234.060000</v>
+        <v>-234.06</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>39274.724928</v>
+        <v>39274.724928000003</v>
       </c>
       <c r="G15" s="1">
         <v>10.909646</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.570000</v>
+        <v>1173.57</v>
       </c>
       <c r="I15" s="1">
-        <v>-198.428000</v>
+        <v>-198.428</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>39285.198947</v>
+        <v>39285.198946999997</v>
       </c>
       <c r="L15" s="1">
-        <v>10.912555</v>
+        <v>10.912554999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.610000</v>
+        <v>1198.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-142.128000</v>
+        <v>-142.12799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>39295.738473</v>
+        <v>39295.738472999998</v>
       </c>
       <c r="Q15" s="1">
         <v>10.915483</v>
       </c>
       <c r="R15" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S15" s="1">
-        <v>-123.061000</v>
+        <v>-123.06100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>39305.930728</v>
+        <v>39305.930727999999</v>
       </c>
       <c r="V15" s="1">
-        <v>10.918314</v>
+        <v>10.918314000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.927000</v>
+        <v>-104.92700000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>39316.279753</v>
+        <v>39316.279753000003</v>
       </c>
       <c r="AA15" s="1">
         <v>10.921189</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.450000</v>
+        <v>1224.45</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.016800</v>
+        <v>-90.016800000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>39326.458653</v>
+        <v>39326.458653000002</v>
       </c>
       <c r="AF15" s="1">
         <v>10.924016</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.820000</v>
+        <v>1229.82</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.029100</v>
+        <v>-86.0291</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>39336.608782</v>
+        <v>39336.608782000003</v>
       </c>
       <c r="AK15" s="1">
         <v>10.926836</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.757400</v>
+        <v>-89.757400000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>39347.404704</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.929835</v>
+        <v>10.929835000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.909000</v>
+        <v>-101.90900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>39358.473922</v>
+        <v>39358.473921999997</v>
       </c>
       <c r="AU15" s="1">
         <v>10.932909</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.870000</v>
+        <v>1255.8699999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.337000</v>
+        <v>-121.337</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>39369.514371</v>
+        <v>39369.514370999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.935976</v>
       </c>
       <c r="BA15" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.016000</v>
+        <v>-139.01599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>39380.445206</v>
+        <v>39380.445205999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.939013</v>
+        <v>10.939012999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.052000</v>
+        <v>-222.05199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>39391.672152</v>
+        <v>39391.672151999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.942131</v>
       </c>
       <c r="BK15" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.790000</v>
+        <v>-360.79</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>39402.095082</v>
@@ -4017,649 +4433,649 @@
         <v>10.945026</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.540000</v>
+        <v>1488.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-587.390000</v>
+        <v>-587.39</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>39412.631626</v>
+        <v>39412.631626000002</v>
       </c>
       <c r="BT15" s="1">
         <v>10.947953</v>
       </c>
       <c r="BU15" s="1">
-        <v>1621.760000</v>
+        <v>1621.76</v>
       </c>
       <c r="BV15" s="1">
-        <v>-844.147000</v>
+        <v>-844.14700000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>39423.492990</v>
+        <v>39423.492989999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.950970</v>
+        <v>10.95097</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1123.180000</v>
+        <v>-1123.18</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>39435.988731</v>
+        <v>39435.988730999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.954441</v>
+        <v>10.954440999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2197.800000</v>
+        <v>2197.8000000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1801.820000</v>
+        <v>-1801.82</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>39264.661101</v>
+        <v>39264.661100999998</v>
       </c>
       <c r="B16" s="1">
-        <v>10.906850</v>
+        <v>10.90685</v>
       </c>
       <c r="C16" s="1">
-        <v>1155.800000</v>
+        <v>1155.8</v>
       </c>
       <c r="D16" s="1">
-        <v>-234.459000</v>
+        <v>-234.459</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>39275.070673</v>
+        <v>39275.070673000002</v>
       </c>
       <c r="G16" s="1">
         <v>10.909742</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.820000</v>
+        <v>1173.82</v>
       </c>
       <c r="I16" s="1">
-        <v>-197.730000</v>
+        <v>-197.73</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>39285.548391</v>
+        <v>39285.548390999997</v>
       </c>
       <c r="L16" s="1">
         <v>10.912652</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.750000</v>
+        <v>1198.75</v>
       </c>
       <c r="N16" s="1">
-        <v>-142.111000</v>
+        <v>-142.11099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>39296.157593</v>
+        <v>39296.157593000004</v>
       </c>
       <c r="Q16" s="1">
         <v>10.915599</v>
       </c>
       <c r="R16" s="1">
-        <v>1207.000000</v>
+        <v>1207</v>
       </c>
       <c r="S16" s="1">
-        <v>-123.077000</v>
+        <v>-123.077</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>39306.351862</v>
+        <v>39306.351862000003</v>
       </c>
       <c r="V16" s="1">
         <v>10.918431</v>
       </c>
       <c r="W16" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.037000</v>
+        <v>-105.03700000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>39316.576890</v>
+        <v>39316.576889999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.921271</v>
+        <v>10.921271000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.929200</v>
+        <v>-89.929199999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>39326.738893</v>
+        <v>39326.738893000002</v>
       </c>
       <c r="AF16" s="1">
         <v>10.924094</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.870000</v>
+        <v>1229.8699999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.075900</v>
+        <v>-86.075900000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>39336.953503</v>
+        <v>39336.953502999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.926932</v>
+        <v>10.926932000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.761900</v>
+        <v>-89.761899999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>39347.766288</v>
+        <v>39347.766287999999</v>
       </c>
       <c r="AP16" s="1">
         <v>10.929935</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.770000</v>
+        <v>1245.77</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.905000</v>
+        <v>-101.905</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>39358.837030</v>
+        <v>39358.837030000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.933010</v>
+        <v>10.933009999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.880000</v>
+        <v>1255.8800000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.323000</v>
+        <v>-121.32299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>39370.234562</v>
+        <v>39370.234561999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.936176</v>
       </c>
       <c r="BA16" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.031000</v>
+        <v>-139.03100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>39381.167380</v>
+        <v>39381.167379999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.939213</v>
+        <v>10.939213000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.024000</v>
+        <v>-222.024</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>39392.070933</v>
+        <v>39392.070933000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.942242</v>
       </c>
       <c r="BK16" s="1">
-        <v>1373.840000</v>
+        <v>1373.84</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.790000</v>
+        <v>-360.79</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>39402.488935</v>
+        <v>39402.488935000001</v>
       </c>
       <c r="BO16" s="1">
         <v>10.945136</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-587.383000</v>
+        <v>-587.38300000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>39413.043804</v>
+        <v>39413.043804000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.948068</v>
+        <v>10.948067999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.690000</v>
+        <v>1621.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-844.257000</v>
+        <v>-844.25699999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>39424.250411</v>
+        <v>39424.250411000001</v>
       </c>
       <c r="BY16" s="1">
         <v>10.951181</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.910000</v>
+        <v>1774.91</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1123.200000</v>
+        <v>-1123.2</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>39436.841359</v>
+        <v>39436.841358999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.954678</v>
+        <v>10.954677999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2199.490000</v>
+        <v>2199.4899999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1801.760000</v>
+        <v>-1801.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>39265.002883</v>
+        <v>39265.002883000001</v>
       </c>
       <c r="B17" s="1">
         <v>10.906945</v>
       </c>
       <c r="C17" s="1">
-        <v>1155.690000</v>
+        <v>1155.69</v>
       </c>
       <c r="D17" s="1">
-        <v>-234.342000</v>
+        <v>-234.34200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>39275.412917</v>
+        <v>39275.412917000001</v>
       </c>
       <c r="G17" s="1">
         <v>10.909837</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.310000</v>
+        <v>1174.31</v>
       </c>
       <c r="I17" s="1">
-        <v>-198.782000</v>
+        <v>-198.78200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>39285.962291</v>
+        <v>39285.962291000003</v>
       </c>
       <c r="L17" s="1">
-        <v>10.912767</v>
+        <v>10.912767000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.730000</v>
+        <v>1198.73</v>
       </c>
       <c r="N17" s="1">
-        <v>-141.895000</v>
+        <v>-141.89500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>39296.437833</v>
+        <v>39296.437833000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.915677</v>
+        <v>10.915677000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="S17" s="1">
-        <v>-123.080000</v>
+        <v>-123.08</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>39306.643478</v>
+        <v>39306.643477999998</v>
       </c>
       <c r="V17" s="1">
         <v>10.918512</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-104.981000</v>
+        <v>-104.98099999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>39316.924554</v>
+        <v>39316.924553999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.921368</v>
+        <v>10.921367999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.330000</v>
+        <v>1224.33</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.909600</v>
+        <v>-89.909599999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>39327.084108</v>
+        <v>39327.084108000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.924190</v>
+        <v>10.924189999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.860000</v>
+        <v>1229.8599999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.043800</v>
+        <v>-86.043800000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>39337.303183</v>
+        <v>39337.303183000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.927029</v>
+        <v>10.927028999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.600000</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.790400</v>
+        <v>-89.790400000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>39348.484991</v>
+        <v>39348.484990999998</v>
       </c>
       <c r="AP17" s="1">
         <v>10.930135</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.892000</v>
+        <v>-101.892</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>39359.567105</v>
+        <v>39359.567105000002</v>
       </c>
       <c r="AU17" s="1">
         <v>10.933213</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.890000</v>
+        <v>1255.8900000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.347000</v>
+        <v>-121.34699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>39370.593698</v>
+        <v>39370.593697999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.936276</v>
+        <v>10.936275999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.007000</v>
+        <v>-139.00700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>39381.555749</v>
+        <v>39381.555748999999</v>
       </c>
       <c r="BE17" s="1">
         <v>10.939321</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.290000</v>
+        <v>1304.29</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.035000</v>
+        <v>-222.035</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>39392.449877</v>
+        <v>39392.449876999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.942347</v>
       </c>
       <c r="BK17" s="1">
-        <v>1373.870000</v>
+        <v>1373.87</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.766000</v>
+        <v>-360.76600000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>39403.200208</v>
+        <v>39403.200208000002</v>
       </c>
       <c r="BO17" s="1">
         <v>10.945333</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-587.347000</v>
+        <v>-587.34699999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>39413.780330</v>
+        <v>39413.780330000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.948272</v>
+        <v>10.948271999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.520000</v>
+        <v>1621.52</v>
       </c>
       <c r="BV17" s="1">
-        <v>-844.199000</v>
+        <v>-844.19899999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>39424.390251</v>
+        <v>39424.390250999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.951220</v>
+        <v>10.951219999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.750000</v>
+        <v>1774.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1123.190000</v>
+        <v>-1123.19</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>39437.068504</v>
+        <v>39437.068504000003</v>
       </c>
       <c r="CD17" s="1">
         <v>10.954741</v>
       </c>
       <c r="CE17" s="1">
-        <v>2199.910000</v>
+        <v>2199.91</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1801.690000</v>
+        <v>-1801.69</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>39265.424941</v>
+        <v>39265.424940999997</v>
       </c>
       <c r="B18" s="1">
         <v>10.907062</v>
       </c>
       <c r="C18" s="1">
-        <v>1155.630000</v>
+        <v>1155.6300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-234.181000</v>
+        <v>-234.18100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>39276.004147</v>
       </c>
       <c r="G18" s="1">
-        <v>10.910001</v>
+        <v>10.910000999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.820000</v>
+        <v>1173.82</v>
       </c>
       <c r="I18" s="1">
-        <v>-198.488000</v>
+        <v>-198.488</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>39286.258402</v>
+        <v>39286.258401999999</v>
       </c>
       <c r="L18" s="1">
-        <v>10.912850</v>
+        <v>10.912850000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-141.963000</v>
+        <v>-141.96299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>39296.784499</v>
+        <v>39296.784499000001</v>
       </c>
       <c r="Q18" s="1">
         <v>10.915773</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.101000</v>
+        <v>-123.101</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>39306.985753</v>
+        <v>39306.985753000001</v>
       </c>
       <c r="V18" s="1">
         <v>10.918607</v>
       </c>
       <c r="W18" s="1">
-        <v>1215.320000</v>
+        <v>1215.32</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.023000</v>
+        <v>-105.023</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>39317.274265</v>
@@ -4668,43 +5084,43 @@
         <v>10.921465</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.048700</v>
+        <v>-90.048699999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>39327.427975</v>
+        <v>39327.427974999999</v>
       </c>
       <c r="AF18" s="1">
         <v>10.924286</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.860000</v>
+        <v>1229.8599999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.055300</v>
+        <v>-86.055300000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>39338.002573</v>
+        <v>39338.002572999998</v>
       </c>
       <c r="AK18" s="1">
         <v>10.927223</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.799200</v>
+        <v>-89.799199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>39348.872894</v>
@@ -4713,512 +5129,512 @@
         <v>10.930242</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.882000</v>
+        <v>-101.88200000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>39359.954509</v>
+        <v>39359.954509000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.933321</v>
+        <v>10.933320999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.910000</v>
+        <v>1255.9100000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>39370.951315</v>
+        <v>39370.951314999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.936375</v>
       </c>
       <c r="BA18" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.018000</v>
+        <v>-139.018</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>39381.935683</v>
+        <v>39381.935683000003</v>
       </c>
       <c r="BE18" s="1">
         <v>10.939427</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.026000</v>
+        <v>-222.02600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>39393.133364</v>
+        <v>39393.133364000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.942537</v>
       </c>
       <c r="BK18" s="1">
-        <v>1373.880000</v>
+        <v>1373.88</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.791000</v>
+        <v>-360.791</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>39403.310279</v>
+        <v>39403.310278999998</v>
       </c>
       <c r="BO18" s="1">
         <v>10.945364</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-587.388000</v>
+        <v>-587.38800000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>39413.898408</v>
+        <v>39413.898408000001</v>
       </c>
       <c r="BT18" s="1">
         <v>10.948305</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.430000</v>
+        <v>1621.43</v>
       </c>
       <c r="BV18" s="1">
-        <v>-844.426000</v>
+        <v>-844.42600000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>39424.812381</v>
+        <v>39424.812381000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.951337</v>
+        <v>10.951337000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.880000</v>
+        <v>1774.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1123.340000</v>
+        <v>-1123.3399999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>39437.584967</v>
+        <v>39437.584967000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.954885</v>
+        <v>10.954885000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.680000</v>
+        <v>2197.6799999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1800.910000</v>
+        <v>-1800.91</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>39265.702236</v>
+        <v>39265.702235999997</v>
       </c>
       <c r="B19" s="1">
-        <v>10.907140</v>
+        <v>10.90714</v>
       </c>
       <c r="C19" s="1">
-        <v>1155.650000</v>
+        <v>1155.6500000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-234.179000</v>
+        <v>-234.179</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>39276.114721</v>
+        <v>39276.114720999998</v>
       </c>
       <c r="G19" s="1">
-        <v>10.910032</v>
+        <v>10.910031999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.960000</v>
+        <v>1173.96</v>
       </c>
       <c r="I19" s="1">
-        <v>-197.492000</v>
+        <v>-197.49199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>39286.601169</v>
+        <v>39286.601169000001</v>
       </c>
       <c r="L19" s="1">
-        <v>10.912945</v>
+        <v>10.912945000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1199.150000</v>
+        <v>1199.1500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-142.093000</v>
+        <v>-142.09299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>39297.133187</v>
+        <v>39297.133186999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.915870</v>
+        <v>10.91587</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.900000</v>
+        <v>1206.9000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-122.982000</v>
+        <v>-122.982</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>39307.330440</v>
+        <v>39307.330439999998</v>
       </c>
       <c r="V19" s="1">
-        <v>10.918703</v>
+        <v>10.918703000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1215.330000</v>
+        <v>1215.33</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.932000</v>
+        <v>-104.932</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>39317.971112</v>
+        <v>39317.971111999999</v>
       </c>
       <c r="AA19" s="1">
         <v>10.921659</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.906600</v>
+        <v>-89.906599999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>39328.111817</v>
+        <v>39328.111816999997</v>
       </c>
       <c r="AF19" s="1">
         <v>10.924476</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.830000</v>
+        <v>1229.83</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.035800</v>
+        <v>-86.035799999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>39338.349244</v>
+        <v>39338.349243999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.927319</v>
+        <v>10.927319000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.757600</v>
+        <v>-89.757599999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>39349.231472</v>
+        <v>39349.231471999999</v>
       </c>
       <c r="AP19" s="1">
         <v>10.930342</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.770000</v>
+        <v>1245.77</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>39360.321023</v>
+        <v>39360.321022999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.933423</v>
+        <v>10.933422999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.920000</v>
+        <v>1255.92</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.324000</v>
+        <v>-121.324</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>39371.617904</v>
+        <v>39371.617903999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>10.936561</v>
+        <v>10.936560999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1264.320000</v>
+        <v>1264.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.022000</v>
+        <v>-139.02199999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>39382.662354</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.939628</v>
+        <v>10.939628000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.063000</v>
+        <v>-222.06299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>39393.242484</v>
+        <v>39393.242484000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>10.942567</v>
       </c>
       <c r="BK19" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.787000</v>
+        <v>-360.78699999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>39403.731914</v>
+        <v>39403.731914000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.945481</v>
+        <v>10.945480999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.490000</v>
+        <v>1488.49</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-587.398000</v>
+        <v>-587.39800000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>39414.314024</v>
+        <v>39414.314023999999</v>
       </c>
       <c r="BT19" s="1">
         <v>10.948421</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.300000</v>
+        <v>1621.3</v>
       </c>
       <c r="BV19" s="1">
-        <v>-844.334000</v>
+        <v>-844.33399999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>39425.237913</v>
+        <v>39425.237912999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.951455</v>
+        <v>10.951454999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.890000</v>
+        <v>1774.89</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1123.260000</v>
+        <v>-1123.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>39438.107649</v>
+        <v>39438.107648999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.955030</v>
+        <v>10.955030000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2198.420000</v>
+        <v>2198.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1803.800000</v>
+        <v>-1803.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>39266.040475</v>
+        <v>39266.040475000002</v>
       </c>
       <c r="B20" s="1">
         <v>10.907233</v>
       </c>
       <c r="C20" s="1">
-        <v>1155.990000</v>
+        <v>1155.99</v>
       </c>
       <c r="D20" s="1">
-        <v>-234.314000</v>
+        <v>-234.31399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>39276.446543</v>
+        <v>39276.446542999998</v>
       </c>
       <c r="G20" s="1">
         <v>10.910124</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.520000</v>
+        <v>1173.52</v>
       </c>
       <c r="I20" s="1">
-        <v>-198.683000</v>
+        <v>-198.68299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>39286.949855</v>
+        <v>39286.949854999999</v>
       </c>
       <c r="L20" s="1">
-        <v>10.913042</v>
+        <v>10.913042000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.730000</v>
+        <v>1198.73</v>
       </c>
       <c r="N20" s="1">
-        <v>-141.783000</v>
+        <v>-141.78299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>39297.831555</v>
+        <v>39297.831554999997</v>
       </c>
       <c r="Q20" s="1">
         <v>10.916064</v>
       </c>
       <c r="R20" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S20" s="1">
-        <v>-123.049000</v>
+        <v>-123.04900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>39308.016900</v>
+        <v>39308.016900000002</v>
       </c>
       <c r="V20" s="1">
         <v>10.918894</v>
       </c>
       <c r="W20" s="1">
-        <v>1215.360000</v>
+        <v>1215.3599999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-104.932000</v>
+        <v>-104.932</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>39318.318807</v>
+        <v>39318.318807000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.921755</v>
+        <v>10.921754999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.970600</v>
+        <v>-89.970600000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>39328.454585</v>
+        <v>39328.454584999999</v>
       </c>
       <c r="AF20" s="1">
         <v>10.924571</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.810000</v>
+        <v>1229.81</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.064300</v>
+        <v>-86.064300000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>39338.701900</v>
+        <v>39338.7019</v>
       </c>
       <c r="AK20" s="1">
         <v>10.927417</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.749900</v>
+        <v>-89.749899999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>39349.903091</v>
@@ -5227,452 +5643,452 @@
         <v>10.930529</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.868000</v>
+        <v>-101.86799999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>39360.990622</v>
+        <v>39360.990621999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.933609</v>
+        <v>10.933609000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.900000</v>
+        <v>1255.9000000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>39372.028593</v>
+        <v>39372.028593000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.936675</v>
+        <v>10.936674999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.002000</v>
+        <v>-139.00200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>39383.017954</v>
+        <v>39383.017954000003</v>
       </c>
       <c r="BE20" s="1">
         <v>10.939727</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.048000</v>
+        <v>-222.048</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>39393.598115</v>
+        <v>39393.598115000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.942666</v>
+        <v>10.942665999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1373.850000</v>
+        <v>1373.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.762000</v>
+        <v>-360.762</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>39404.129669</v>
+        <v>39404.129669000002</v>
       </c>
       <c r="BO20" s="1">
         <v>10.945592</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.510000</v>
+        <v>1488.51</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-587.445000</v>
+        <v>-587.44500000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>39414.747067</v>
+        <v>39414.747066999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.948541</v>
+        <v>10.948541000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.180000</v>
+        <v>1621.18</v>
       </c>
       <c r="BV20" s="1">
-        <v>-844.379000</v>
+        <v>-844.37900000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>39425.659513</v>
+        <v>39425.659512999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.951572</v>
+        <v>10.951572000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.990000</v>
+        <v>1774.99</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1123.140000</v>
+        <v>-1123.1400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>39438.645306</v>
+        <v>39438.645305999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.955179</v>
+        <v>10.955178999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2199.900000</v>
+        <v>2199.9</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1801.770000</v>
+        <v>-1801.77</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>39266.383538</v>
+        <v>39266.383538000002</v>
       </c>
       <c r="B21" s="1">
-        <v>10.907329</v>
+        <v>10.907329000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1155.610000</v>
+        <v>1155.6099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-234.393000</v>
+        <v>-234.393</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>39277.138494</v>
+        <v>39277.138493999999</v>
       </c>
       <c r="G21" s="1">
         <v>10.910316</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.280000</v>
+        <v>1173.28</v>
       </c>
       <c r="I21" s="1">
-        <v>-197.695000</v>
+        <v>-197.69499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>39287.641247</v>
       </c>
       <c r="L21" s="1">
-        <v>10.913234</v>
+        <v>10.913233999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1198.350000</v>
+        <v>1198.3499999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-141.863000</v>
+        <v>-141.863</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>39298.181235</v>
+        <v>39298.181234999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.916161</v>
+        <v>10.916161000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="S21" s="1">
-        <v>-123.046000</v>
+        <v>-123.04600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>39308.359637</v>
+        <v>39308.359637000001</v>
       </c>
       <c r="V21" s="1">
         <v>10.918989</v>
       </c>
       <c r="W21" s="1">
-        <v>1215.310000</v>
+        <v>1215.31</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.955000</v>
+        <v>-104.955</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>39318.669976</v>
+        <v>39318.669975999997</v>
       </c>
       <c r="AA21" s="1">
         <v>10.921853</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.770000</v>
+        <v>1224.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.649800</v>
+        <v>-89.649799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>39329.114270</v>
+        <v>39329.114269999998</v>
       </c>
       <c r="AF21" s="1">
         <v>10.924754</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.840000</v>
+        <v>1229.8399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.052800</v>
+        <v>-86.052800000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>39339.359135</v>
+        <v>39339.359134999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.927600</v>
+        <v>10.9276</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.767800</v>
+        <v>-89.767799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>39350.336589</v>
+        <v>39350.336588999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.930649</v>
+        <v>10.930649000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.884000</v>
+        <v>-101.884</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>39361.446446</v>
+        <v>39361.446446000002</v>
       </c>
       <c r="AU21" s="1">
         <v>10.933735</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.920000</v>
+        <v>1255.92</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.343000</v>
+        <v>-121.343</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>39372.409519</v>
+        <v>39372.409519000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>10.936780</v>
+        <v>10.936780000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.038000</v>
+        <v>-139.03800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>39383.378544</v>
+        <v>39383.378543999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>10.939827</v>
+        <v>10.939826999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.029000</v>
+        <v>-222.029</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>39393.974580</v>
+        <v>39393.974580000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.942771</v>
       </c>
       <c r="BK21" s="1">
-        <v>1373.880000</v>
+        <v>1373.88</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.767000</v>
+        <v>-360.767</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>39404.551766</v>
+        <v>39404.551765999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.945709</v>
+        <v>10.945709000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-587.407000</v>
+        <v>-587.40700000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>39415.175611</v>
+        <v>39415.175610999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.948660</v>
+        <v>10.94866</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.080000</v>
+        <v>1621.08</v>
       </c>
       <c r="BV21" s="1">
-        <v>-844.365000</v>
+        <v>-844.36500000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>39426.101955</v>
+        <v>39426.101954999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.951695</v>
+        <v>10.951695000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.850000</v>
+        <v>1774.85</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1123.130000</v>
+        <v>-1123.1300000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>39439.186407</v>
+        <v>39439.186407000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.955330</v>
+        <v>10.95533</v>
       </c>
       <c r="CE21" s="1">
-        <v>2197.110000</v>
+        <v>2197.11</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1802.690000</v>
+        <v>-1802.69</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>39267.068186</v>
+        <v>39267.068185999997</v>
       </c>
       <c r="B22" s="1">
-        <v>10.907519</v>
+        <v>10.907519000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1155.830000</v>
+        <v>1155.83</v>
       </c>
       <c r="D22" s="1">
-        <v>-234.325000</v>
+        <v>-234.32499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>39277.484670</v>
+        <v>39277.484669999998</v>
       </c>
       <c r="G22" s="1">
-        <v>10.910412</v>
+        <v>10.910412000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.980000</v>
+        <v>1173.98</v>
       </c>
       <c r="I22" s="1">
-        <v>-198.692000</v>
+        <v>-198.69200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>39287.988944</v>
+        <v>39287.988943999997</v>
       </c>
       <c r="L22" s="1">
-        <v>10.913330</v>
+        <v>10.91333</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-141.896000</v>
+        <v>-141.89599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>39298.529458</v>
+        <v>39298.529457999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.916258</v>
+        <v>10.916257999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="S22" s="1">
-        <v>-123.090000</v>
+        <v>-123.09</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>39308.702868</v>
@@ -5681,43 +6097,43 @@
         <v>10.919084</v>
       </c>
       <c r="W22" s="1">
-        <v>1215.360000</v>
+        <v>1215.3599999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.058000</v>
+        <v>-105.05800000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>39319.319735</v>
+        <v>39319.319734999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.922033</v>
+        <v>10.922033000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.410000</v>
+        <v>1224.4100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.913100</v>
+        <v>-89.9131</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>39329.484249</v>
+        <v>39329.484249000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.924857</v>
+        <v>10.924856999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.880000</v>
+        <v>1229.8800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.007700</v>
+        <v>-86.0077</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>39339.743768</v>
@@ -5726,360 +6142,360 @@
         <v>10.927707</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.785200</v>
+        <v>-89.785200000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>39350.696690</v>
+        <v>39350.696689999997</v>
       </c>
       <c r="AP22" s="1">
         <v>10.930749</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>39361.813498</v>
+        <v>39361.813498000003</v>
       </c>
       <c r="AU22" s="1">
         <v>10.933837</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.900000</v>
+        <v>1255.9000000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.345000</v>
+        <v>-121.345</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>39372.769120</v>
+        <v>39372.769119999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.936880</v>
+        <v>10.93688</v>
       </c>
       <c r="BA22" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.034000</v>
+        <v>-139.03399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>39383.820480</v>
+        <v>39383.820480000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.939950</v>
+        <v>10.93995</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.035000</v>
+        <v>-222.035</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>39394.394690</v>
+        <v>39394.394690000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.942887</v>
+        <v>10.942887000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.792000</v>
+        <v>-360.79199999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>39404.947078</v>
+        <v>39404.947077999997</v>
       </c>
       <c r="BO22" s="1">
         <v>10.945819</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.470000</v>
+        <v>1488.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-587.388000</v>
+        <v>-587.38800000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>39415.584801</v>
+        <v>39415.584800999997</v>
       </c>
       <c r="BT22" s="1">
         <v>10.948774</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.910000</v>
+        <v>1620.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-844.295000</v>
+        <v>-844.29499999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>39426.524538</v>
+        <v>39426.524537999998</v>
       </c>
       <c r="BY22" s="1">
         <v>10.951812</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.930000</v>
+        <v>1774.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1123.240000</v>
+        <v>-1123.24</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>39439.724070</v>
+        <v>39439.724069999997</v>
       </c>
       <c r="CD22" s="1">
         <v>10.955479</v>
       </c>
       <c r="CE22" s="1">
-        <v>2199.630000</v>
+        <v>2199.63</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1802.720000</v>
+        <v>-1802.72</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>39267.413402</v>
+        <v>39267.413401999998</v>
       </c>
       <c r="B23" s="1">
         <v>10.907615</v>
       </c>
       <c r="C23" s="1">
-        <v>1155.640000</v>
+        <v>1155.6400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-234.507000</v>
+        <v>-234.50700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>39277.829885</v>
+        <v>39277.829884999999</v>
       </c>
       <c r="G23" s="1">
         <v>10.910508</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.540000</v>
+        <v>1173.54</v>
       </c>
       <c r="I23" s="1">
-        <v>-198.553000</v>
+        <v>-198.553</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>39288.335150</v>
+        <v>39288.335149999999</v>
       </c>
       <c r="L23" s="1">
-        <v>10.913426</v>
+        <v>10.913425999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.570000</v>
+        <v>1198.57</v>
       </c>
       <c r="N23" s="1">
-        <v>-142.060000</v>
+        <v>-142.06</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>39299.179680</v>
+        <v>39299.179680000001</v>
       </c>
       <c r="Q23" s="1">
         <v>10.916439</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-123.078000</v>
+        <v>-123.078</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>39309.366561</v>
+        <v>39309.366561000003</v>
       </c>
       <c r="V23" s="1">
-        <v>10.919268</v>
+        <v>10.919268000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.112000</v>
+        <v>-105.11199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>39319.716037</v>
+        <v>39319.716036999998</v>
       </c>
       <c r="AA23" s="1">
         <v>10.922143</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.803400</v>
+        <v>-89.803399999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>39329.831449</v>
+        <v>39329.831448999998</v>
       </c>
       <c r="AF23" s="1">
         <v>10.924953</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.800000</v>
+        <v>1229.8</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.052000</v>
+        <v>-86.052000000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>39340.095689</v>
+        <v>39340.095689000002</v>
       </c>
       <c r="AK23" s="1">
         <v>10.927804</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.772000</v>
+        <v>-89.772000000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>39351.061243</v>
+        <v>39351.061242999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.930850</v>
+        <v>10.93085</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.914000</v>
+        <v>-101.914</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>39362.178541</v>
+        <v>39362.178541000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.933938</v>
+        <v>10.933937999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.890000</v>
+        <v>1255.8900000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.335000</v>
+        <v>-121.33499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>39373.190726</v>
+        <v>39373.190726000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.936997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.020000</v>
+        <v>-139.02000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>39384.100755</v>
+        <v>39384.100754999999</v>
       </c>
       <c r="BE23" s="1">
         <v>10.940028</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.051000</v>
+        <v>-222.05099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>39394.735443</v>
+        <v>39394.735442999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.942982</v>
+        <v>10.942982000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.799000</v>
+        <v>-360.79899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>39405.372644</v>
+        <v>39405.372644000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.945937</v>
+        <v>10.945937000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.480000</v>
+        <v>1488.48</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-587.354000</v>
+        <v>-587.35400000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>39416.015302</v>
@@ -6088,392 +6504,392 @@
         <v>10.948893</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.870000</v>
+        <v>1620.87</v>
       </c>
       <c r="BV23" s="1">
-        <v>-844.138000</v>
+        <v>-844.13800000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>39426.949608</v>
+        <v>39426.949608000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.951930</v>
+        <v>10.951930000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.770000</v>
+        <v>1774.77</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1123.120000</v>
+        <v>-1123.1199999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>39440.264711</v>
+        <v>39440.264711000003</v>
       </c>
       <c r="CD23" s="1">
         <v>10.955629</v>
       </c>
       <c r="CE23" s="1">
-        <v>2198.050000</v>
+        <v>2198.0500000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1801.510000</v>
+        <v>-1801.51</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>39267.753690</v>
+        <v>39267.753689999998</v>
       </c>
       <c r="B24" s="1">
-        <v>10.907709</v>
+        <v>10.907709000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1155.550000</v>
+        <v>1155.55</v>
       </c>
       <c r="D24" s="1">
-        <v>-234.413000</v>
+        <v>-234.41300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>39278.482124</v>
+        <v>39278.482124000002</v>
       </c>
       <c r="G24" s="1">
         <v>10.910689</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.520000</v>
+        <v>1173.52</v>
       </c>
       <c r="I24" s="1">
-        <v>-199.023000</v>
+        <v>-199.023</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>39288.989374</v>
+        <v>39288.989373999997</v>
       </c>
       <c r="L24" s="1">
         <v>10.913608</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-142.116000</v>
+        <v>-142.11600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>39299.575025</v>
+        <v>39299.575024999998</v>
       </c>
       <c r="Q24" s="1">
         <v>10.916549</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S24" s="1">
-        <v>-123.001000</v>
+        <v>-123.001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>39309.732562</v>
+        <v>39309.732561999997</v>
       </c>
       <c r="V24" s="1">
-        <v>10.919370</v>
+        <v>10.919370000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1215.380000</v>
+        <v>1215.3800000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.064000</v>
+        <v>-105.06399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>39320.063734</v>
+        <v>39320.063734000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.922240</v>
+        <v>10.92224</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.905100</v>
+        <v>-89.905100000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>39330.173687</v>
+        <v>39330.173687000002</v>
       </c>
       <c r="AF24" s="1">
         <v>10.925048</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.790000</v>
+        <v>1229.79</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.009800</v>
+        <v>-86.009799999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>39340.443482</v>
+        <v>39340.443482000002</v>
       </c>
       <c r="AK24" s="1">
         <v>10.927901</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.768800</v>
+        <v>-89.768799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>39351.481853</v>
+        <v>39351.481852999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.930967</v>
+        <v>10.930967000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.888000</v>
+        <v>-101.88800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>39362.599686</v>
+        <v>39362.599686000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.934055</v>
+        <v>10.934055000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.890000</v>
+        <v>1255.8900000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>39373.486861</v>
+        <v>39373.486860999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.937080</v>
+        <v>10.93708</v>
       </c>
       <c r="BA24" s="1">
-        <v>1264.370000</v>
+        <v>1264.3699999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.017000</v>
+        <v>-139.017</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>39384.460815</v>
+        <v>39384.460814999999</v>
       </c>
       <c r="BE24" s="1">
         <v>10.940128</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.056000</v>
+        <v>-222.05600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>39395.123809</v>
+        <v>39395.123808999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.943090</v>
+        <v>10.94309</v>
       </c>
       <c r="BK24" s="1">
-        <v>1373.810000</v>
+        <v>1373.81</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.809000</v>
+        <v>-360.80900000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>39405.768451</v>
+        <v>39405.768451000004</v>
       </c>
       <c r="BO24" s="1">
         <v>10.946047</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-587.391000</v>
+        <v>-587.39099999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>39416.444341</v>
+        <v>39416.444341000002</v>
       </c>
       <c r="BT24" s="1">
         <v>10.949012</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV24" s="1">
-        <v>-844.090000</v>
+        <v>-844.09</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>39427.398026</v>
+        <v>39427.398026000003</v>
       </c>
       <c r="BY24" s="1">
         <v>10.952055</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.910000</v>
+        <v>1774.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1123.140000</v>
+        <v>-1123.1400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>39440.803397</v>
+        <v>39440.803397000003</v>
       </c>
       <c r="CD24" s="1">
         <v>10.955779</v>
       </c>
       <c r="CE24" s="1">
-        <v>2198.370000</v>
+        <v>2198.37</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1803.460000</v>
+        <v>-1803.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>39268.407386</v>
+        <v>39268.407385999999</v>
       </c>
       <c r="B25" s="1">
-        <v>10.907891</v>
+        <v>10.907890999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1155.590000</v>
+        <v>1155.5899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-234.169000</v>
+        <v>-234.16900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>39278.861600</v>
+        <v>39278.861599999997</v>
       </c>
       <c r="G25" s="1">
         <v>10.910795</v>
       </c>
       <c r="H25" s="1">
-        <v>1173.800000</v>
+        <v>1173.8</v>
       </c>
       <c r="I25" s="1">
-        <v>-198.527000</v>
+        <v>-198.52699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>39289.368840</v>
+        <v>39289.368840000003</v>
       </c>
       <c r="L25" s="1">
-        <v>10.913714</v>
+        <v>10.913714000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.690000</v>
+        <v>1198.69</v>
       </c>
       <c r="N25" s="1">
-        <v>-142.235000</v>
+        <v>-142.23500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>39299.922229</v>
+        <v>39299.922229000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.916645</v>
+        <v>10.916645000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S25" s="1">
-        <v>-122.975000</v>
+        <v>-122.97499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>39310.076290</v>
+        <v>39310.076289999997</v>
       </c>
       <c r="V25" s="1">
         <v>10.919466</v>
       </c>
       <c r="W25" s="1">
-        <v>1215.460000</v>
+        <v>1215.46</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.035000</v>
+        <v>-105.035</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>39320.412949</v>
+        <v>39320.412948999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.922337</v>
+        <v>10.922337000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.831100</v>
+        <v>-89.831100000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>39330.595318</v>
@@ -6482,315 +6898,315 @@
         <v>10.925165</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.860000</v>
+        <v>1229.8599999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.051700</v>
+        <v>-86.051699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>39340.858542</v>
+        <v>39340.858542000002</v>
       </c>
       <c r="AK25" s="1">
         <v>10.928016</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.763400</v>
+        <v>-89.763400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>39351.782396</v>
+        <v>39351.782396000002</v>
       </c>
       <c r="AP25" s="1">
         <v>10.931051</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.800000</v>
+        <v>1245.8</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.892000</v>
+        <v>-101.892</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>39362.906668</v>
+        <v>39362.906668000003</v>
       </c>
       <c r="AU25" s="1">
         <v>10.934141</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.880000</v>
+        <v>1255.8800000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>39373.845438</v>
+        <v>39373.845437999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.937179</v>
       </c>
       <c r="BA25" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.000000</v>
+        <v>-139</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>39384.825408</v>
+        <v>39384.825407999997</v>
       </c>
       <c r="BE25" s="1">
         <v>10.940229</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.055000</v>
+        <v>-222.05500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>39395.500274</v>
+        <v>39395.500273999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.943195</v>
+        <v>10.943194999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1373.880000</v>
+        <v>1373.88</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.767000</v>
+        <v>-360.767</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>39406.186610</v>
+        <v>39406.186609999997</v>
       </c>
       <c r="BO25" s="1">
         <v>10.946163</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.500000</v>
+        <v>1488.5</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-587.407000</v>
+        <v>-587.40700000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>39416.861012</v>
+        <v>39416.861012000001</v>
       </c>
       <c r="BT25" s="1">
         <v>10.949128</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.850000</v>
+        <v>1620.85</v>
       </c>
       <c r="BV25" s="1">
-        <v>-843.971000</v>
+        <v>-843.971</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>39427.827526</v>
+        <v>39427.827526000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.952174</v>
+        <v>10.952173999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1775.090000</v>
+        <v>1775.09</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1123.110000</v>
+        <v>-1123.1099999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>39441.333590</v>
+        <v>39441.333590000002</v>
       </c>
       <c r="CD25" s="1">
         <v>10.955926</v>
       </c>
       <c r="CE25" s="1">
-        <v>2199.830000</v>
+        <v>2199.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1801.550000</v>
+        <v>-1801.55</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>39268.778920</v>
+        <v>39268.778919999997</v>
       </c>
       <c r="B26" s="1">
         <v>10.907994</v>
       </c>
       <c r="C26" s="1">
-        <v>1155.470000</v>
+        <v>1155.47</v>
       </c>
       <c r="D26" s="1">
-        <v>-234.220000</v>
+        <v>-234.22</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>39279.207275</v>
+        <v>39279.207275000001</v>
       </c>
       <c r="G26" s="1">
-        <v>10.910891</v>
+        <v>10.910890999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.760000</v>
+        <v>1173.76</v>
       </c>
       <c r="I26" s="1">
-        <v>-198.022000</v>
+        <v>-198.02199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>39289.717997</v>
       </c>
       <c r="L26" s="1">
-        <v>10.913811</v>
+        <v>10.913811000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.810000</v>
+        <v>1198.81</v>
       </c>
       <c r="N26" s="1">
-        <v>-142.034000</v>
+        <v>-142.03399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>39300.272863</v>
+        <v>39300.272862999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.916742</v>
+        <v>10.916741999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1207.010000</v>
+        <v>1207.01</v>
       </c>
       <c r="S26" s="1">
-        <v>-123.052000</v>
+        <v>-123.05200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>39310.423986</v>
+        <v>39310.423986000002</v>
       </c>
       <c r="V26" s="1">
-        <v>10.919562</v>
+        <v>10.919562000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1215.430000</v>
+        <v>1215.43</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.038000</v>
+        <v>-105.038</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>39320.830549</v>
+        <v>39320.830548999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>10.922453</v>
+        <v>10.922453000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.121800</v>
+        <v>-90.121799999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>39330.888454</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.925247</v>
+        <v>10.925247000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.860000</v>
+        <v>1229.8599999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.052700</v>
+        <v>-86.052700000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>39341.149162</v>
+        <v>39341.149162000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.928097</v>
+        <v>10.928096999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.763100</v>
+        <v>-89.763099999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>39352.141498</v>
+        <v>39352.141497999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.931150</v>
+        <v>10.931150000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.893000</v>
+        <v>-101.893</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>39363.273243</v>
+        <v>39363.273243000003</v>
       </c>
       <c r="AU26" s="1">
         <v>10.934243</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.890000</v>
+        <v>1255.8900000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.334000</v>
+        <v>-121.334</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>39374.205037</v>
@@ -6799,73 +7215,73 @@
         <v>10.937279</v>
       </c>
       <c r="BA26" s="1">
-        <v>1264.370000</v>
+        <v>1264.3699999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.044000</v>
+        <v>-139.04400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>39385.545070</v>
+        <v>39385.54507</v>
       </c>
       <c r="BE26" s="1">
         <v>10.940429</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.067000</v>
+        <v>-222.06700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>39396.250721</v>
+        <v>39396.250720999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.943403</v>
       </c>
       <c r="BK26" s="1">
-        <v>1373.860000</v>
+        <v>1373.86</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.791000</v>
+        <v>-360.791</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>39406.583875</v>
+        <v>39406.583874999997</v>
       </c>
       <c r="BO26" s="1">
         <v>10.946273</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.520000</v>
+        <v>1488.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-587.406000</v>
+        <v>-587.40599999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>39417.287540</v>
+        <v>39417.287539999998</v>
       </c>
       <c r="BT26" s="1">
         <v>10.949247</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.800000</v>
+        <v>1620.8</v>
       </c>
       <c r="BV26" s="1">
-        <v>-843.843000</v>
+        <v>-843.84299999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>39428.250149</v>
@@ -6874,30 +7290,31 @@
         <v>10.952292</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.920000</v>
+        <v>1774.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1123.010000</v>
+        <v>-1123.01</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>39442.186244</v>
+        <v>39442.186243999997</v>
       </c>
       <c r="CD26" s="1">
         <v>10.956163</v>
       </c>
       <c r="CE26" s="1">
-        <v>2198.760000</v>
+        <v>2198.7600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1804.310000</v>
+        <v>-1804.31</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>